--- a/webcentral/doc/01_data/17_datasets/datasets_with_weatherdata.xlsx
+++ b/webcentral/doc/01_data/17_datasets/datasets_with_weatherdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="German" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="434">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -635,12 +635,34 @@
     <t xml:space="preserve">Test Referenzjahr Deutschland</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dwd.de/DE/leistungen/testreferenzjahre/testreferenzjahre.html</t>
+    <t xml:space="preserve">Deutscher Wetterdienst (DWD) und Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dwd.de/DE/leistungen/testreferenzjahre/testreferenzjahre.html
+https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html
+https://www.bbsr.bund.de/BBSR/DE/forschung/programme/zb/Auftragsforschung/5EnergieKlimaBauen/2013/testreferenzjahre/01-start.html
+</t>
   </si>
   <si>
     <t xml:space="preserve">TRY Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Ortsgenaue Testreferenzjahre (TRY) von Deutschland für mittlere und extreme Witterungsverhältnisse
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es sind stündliche Daten für 365 Tage eines Jahres enthalten. Die Daten setzen sich zusammen aus: Koordinaten: Hoch und Rechtswert in der Lambert-konform konischen Projektion in Meter (EPSG-Code: 3034), Monat, Tag, Stunde, Bedeckungsgrad, Windrichtung, Windgeschwindigkeit, Lufttemperatur , Wasserdampfgehalt, Relative Feuchte, Direkte Sonnenbestrahlungsstärke bezogen auf die horizontale Fläche, Diffuse Sonnenbestrahlungsstärke bezogen auf die horizontale Fläche, Bestrahlungsstärke der atmosphärischen Wärmestrahlung bezogen auf die horizontale Fläche, Spezifische Ausstrahlung der Wärmestrahlung der Erdoberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frei nutzbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach Registrierung auf der Webseite herunterladbar.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elektrizitätsverbrauch für Zeitreihen für Wohngebäude</t>
   </si>
   <si>
@@ -869,9 +891,6 @@
     <t xml:space="preserve">Logo_FG_de.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Frei nutzbar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urban Climate Under Change (UC2)</t>
   </si>
   <si>
@@ -885,21 +904,6 @@
   </si>
   <si>
     <t xml:space="preserve">UC2_logo_0.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testreferenzjahr (TRY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundesinstitut für Bau-, Stadt- und Raumforschung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortsgenaue Testreferenzjahre (TRY) von Deutschland für mittlere und extreme Witterungsverhältnisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bbsr.bund.de/BBSR/DE/forschung/programme/zb/Auftragsforschung/5EnergieKlimaBauen/2013/testreferenzjahre/01-start.html;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.07.2017</t>
   </si>
   <si>
     <t xml:space="preserve">Integrated Carbon Observation System (ICOS)</t>
@@ -1194,6 +1198,21 @@
     <t xml:space="preserve">Test reference year Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Weatherdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dwd.de/DE/leistungen/testreferenzjahre/testreferenzjahre.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location-specific Test Reference Years (TRY) for Germany for average and extreme weather conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It includes hourly data for 365 days of a year. The data consists of: Coordinates (northing and easting in Lambert conformal conic projection, in meters, EPSG code: 3034), month, day, hour, cloud cover, wind direction, wind speed, air temperature, water vapor content, relative humidity, direct solar radiation on a horizontal surface, diffuse solar radiation on a horizontal surface, atmospheric thermal radiation on a horizontal surface, and the specific thermal radiation emitted by the Earth's surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free to use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electricity consumption for residential building time series</t>
   </si>
   <si>
@@ -1287,7 +1306,7 @@
     <t xml:space="preserve">BIM files for BUILDING360</t>
   </si>
   <si>
-    <t xml:space="preserve">Datasets;;Weatherdata</t>
+    <t xml:space="preserve">Datasets;;Weather data</t>
   </si>
   <si>
     <t xml:space="preserve">German Weather Service</t>
@@ -1305,19 +1324,7 @@
     <t xml:space="preserve">The Central Europe Refined analysis version 1 (CER v1) is an atmospheric data set generated within the frameworks of the DFG-funded research unit "Urban Climate and Heat Stress in mid-latitude cities in view of climate change (UcaHS)" (http://ucahs.org) and the DFG-funded research project "Heat waves in Berlin, Germany - Urban climate modifications" (https://www.klima.tu-berlin.de/index.php?show=stadtklima_de_hitzewellen_in_berlin&amp;lan=de). The CER covers the period March 2001 - May 2019 and provides gridded two- and three-dimensional fields of a multitude of atmospheric variables for three domains. The setup of the CER is based on a sensitivity study concerning planetary boundary layer schemes and urban canopy models by Jänicke et al. (2017)  (https://rmets.onlinelibrary.wiley.com/doi/10.1002/joc.4835)</t>
   </si>
   <si>
-    <t xml:space="preserve">Free to use</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unfortunately, comprehensive data on weather, climate and air quality in large cities is currently only available to a limited extent. As part of the funding measure, Module B is intended to process data that is already available and to collect new or missing data using long-term measurements, intensive measurement campaigns and physical modeling. In order to support the exchange of observation and model data between the project partners across the module boundaries of modules A and C, e.g. for the validation of the newly developed urban climate model PALM-4U or for urban climatological and scientific studies, this data management system (DMS ) developed. Logged in users can upload and download data in this DMS, provided it meets the requirements of the [UC]² data standard. Without login, only data whose license allows public access can be viewed. For more information about the data standard and data policies, please click on the links at the top of the page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test reference year (TRY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal Institute for Building, Urban and Spatial Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location-accurate test reference years (TRY) from Germany for medium and extreme weather conditions</t>
   </si>
   <si>
     <t xml:space="preserve">High-quality and standardized data on greenhouse gases</t>
@@ -1330,7 +1337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,6 +1375,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1422,7 +1455,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1439,8 +1472,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1638,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I52" activeCellId="0" sqref="I52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M46" activeCellId="0" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2937,62 +2990,2101 @@
         <v>33</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.probas.umweltbundesamt.de/php/index.php"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://zenodo.org/record/6771218"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://zenodo.org/record/6414018"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.kaggle.com/datasets/teeyee314/ucf-building-meter-reading"/>
+    <hyperlink ref="E6" r:id="rId5" display="http://www.adv-online.de/AdV-Produkte/Liegenschaftskataster/Download/"/>
+    <hyperlink ref="I6" r:id="rId6" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://wiki.openstreetmap.org/wiki/Buildings"/>
+    <hyperlink ref="I7" r:id="rId8" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E8" r:id="rId9" display="http://www.geoportal-th.de/de-de/Downloadbereiche/Download-Offene-Geodaten-Th%C3%BCringen/Download-3D-Geb%C3%A4ude"/>
+    <hyperlink ref="I8" r:id="rId10" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E9" r:id="rId11" display="http://www.adv-online.de/AdV-Produkte/Liegenschaftskataster/Amtliche-Hausumringe/"/>
+    <hyperlink ref="I9" r:id="rId12" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E10" r:id="rId13" display="http://plato.asu.edu/ftp/lpbar.html"/>
+    <hyperlink ref="E11" r:id="rId14" display="https://fbinter.stadt-berlin.de/fb/gisbroker.do;jsessionid=1BD1F75A060787BFEBE6FDF37029694D?cmd=map_start"/>
+    <hyperlink ref="I11" r:id="rId15" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E12" r:id="rId16" display="https://www.oekobaudat.de/"/>
+    <hyperlink ref="E13" r:id="rId17" display="http://www.iwu.de/fileadmin/user_upload/dateien/energie/typo_NWG/IWU_2015_Typologie-gest%C3%BCtzte_Kennwerte_NWG.pdf"/>
+    <hyperlink ref="I13" r:id="rId18" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E14" r:id="rId19" display="http://www.irbnet.de/daten/baufo/20118035380/Projektkurzbeschreibung.pdf"/>
+    <hyperlink ref="I14" r:id="rId20" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E15" r:id="rId21" display="http://episcope.eu/building-typology/country/de/"/>
+    <hyperlink ref="I15" r:id="rId22" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="I16" r:id="rId23" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E17" r:id="rId24" display="https://gdz.bkg.bund.de/index.php/default/open-data/digitales-gelandemodell-gitterweite-200-m-dgm200.html"/>
+    <hyperlink ref="I17" r:id="rId25" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E18" r:id="rId26" display="https://www.gie.eu/transparency/"/>
+    <hyperlink ref="E19" r:id="rId27" location="/" display="https://ashraeobdatabase.com/#/"/>
+    <hyperlink ref="E20" r:id="rId28" display="https://gdz.bkg.bund.de/index.php/default/digitale-geodaten/digitale-gelandemodelle.html?___store=default"/>
+    <hyperlink ref="I20" r:id="rId29" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E21" r:id="rId30" display="https://www.opengeodata.nrw.de/produkte/geobasis/dtk/"/>
+    <hyperlink ref="I21" r:id="rId31" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E22" r:id="rId32" display="https://www.opengeodata.nrw.de/produkte/geobasis/3d-gm/"/>
+    <hyperlink ref="I22" r:id="rId33" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E23" r:id="rId34" display="https://data.openei.org/submissions/2977"/>
+    <hyperlink ref="E24" r:id="rId35" display="https://climate.onebuilding.org/"/>
+    <hyperlink ref="E25" r:id="rId36" display="https://www.pecanstreet.org/dataport/"/>
+    <hyperlink ref="E26" r:id="rId37" display="https://wohngebaeudedaten2016.iwu.de/"/>
+    <hyperlink ref="I26" r:id="rId38" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E27" r:id="rId39" display="http://data.opendataportal.at/dataset/dtm-germany"/>
+    <hyperlink ref="I27" r:id="rId40" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E28" r:id="rId41" display="https://www.db-thueringen.de/receive/dbt_mods_00053108"/>
+    <hyperlink ref="E29" r:id="rId42" display="https://www.destatis.de/EN/FactsFigures/EconomicSectors/Construction/Construction.html"/>
+    <hyperlink ref="I29" r:id="rId43" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E30" r:id="rId44" display="https://fbinter.stadt-berlin.de/fb/gisbroker.do;jsessionid=1BD1F75A060787BFEBE6FDF37029694D?cmd=map_start"/>
+    <hyperlink ref="I30" r:id="rId45" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E31" r:id="rId46" location="52.3026,4.9016,11" display="https://code.waag.org/buildings/#52.3026,4.9016,11"/>
+    <hyperlink ref="E32" r:id="rId47" display="https://www.dwd.de/DE/leistungen/cdc_portal/cdc_portal.html?nn=17626"/>
+    <hyperlink ref="I32" r:id="rId48" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
+    <hyperlink ref="E33" r:id="rId49" display="https://openenergy-platform.org/dataedit/schemas"/>
+    <hyperlink ref="E34" r:id="rId50" location="15.66/13.30813/52.52967/0/" display="https://osmlanduse.org/#15.66/13.30813/52.52967/0/"/>
+    <hyperlink ref="E35" r:id="rId51" display="https://www.bdew.de/energie/standardlastprofile-strom/"/>
+    <hyperlink ref="E36" r:id="rId52" display="https://www.arcat.com/bim/bim_objects.shtml"/>
+    <hyperlink ref="I36" r:id="rId53" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
+    <hyperlink ref="E38" r:id="rId54" display="https://solar.htw-berlin.de/elektrische-lastprofile-fuer-wohngebaeude/"/>
+    <hyperlink ref="E39" r:id="rId55" display="https://www.citygmlwiki.org/index.php?title=KIT_Sample_files_Energy_ADE"/>
+    <hyperlink ref="E40" r:id="rId56" display="https://wiki.hotmaps.eu/de/Hotmaps-data-set-method-of-data-collection"/>
+    <hyperlink ref="E41" r:id="rId57" display="https://ec.europa.eu/eurostat/data/database"/>
+    <hyperlink ref="E42" r:id="rId58" display="https://data.open-power-system-data.org/when2heat/2022-02-22"/>
+    <hyperlink ref="E43" r:id="rId59" display="https://zenodo.org/record/5642902"/>
+    <hyperlink ref="E44" r:id="rId60" display="https://zenodo.org/record/6728382"/>
+    <hyperlink ref="E45" r:id="rId61" display="https://www.netzentwicklungsplan.de/en/background/transmission-system-operators"/>
+    <hyperlink ref="E46" r:id="rId62" location="!/dataset/reanalysis-era5-single-levels?tab=overview" display="https://cds.climate.copernicus.eu/cdsapp#!/dataset/reanalysis-era5-single-levels?tab=overview"/>
+    <hyperlink ref="E47" r:id="rId63" display="https://zenodo.org/record/4817980"/>
+    <hyperlink ref="E48" r:id="rId64" display="https://zenodo.org/record/6414018"/>
+    <hyperlink ref="E49" r:id="rId65" display="https://www.ggv-energie.de/cms/netz/allgemeine-daten/netzbilanzierung-download-aller-profile.php"/>
+    <hyperlink ref="E50" r:id="rId66" display="https://www.building360.ch/bauteilkataloge"/>
+    <hyperlink ref="I50" r:id="rId67" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
+    <hyperlink ref="E51" r:id="rId68" display="https://opendata.dwd.de/"/>
+    <hyperlink ref="J51" r:id="rId69" display="https://www.dwd.de/DE/leistungen/opendata/hilfe.html"/>
+    <hyperlink ref="E52" r:id="rId70" display="https://data.klima.tu-berlin.de/CER/"/>
+    <hyperlink ref="J52" r:id="rId71" display="https://www.klima.tu-berlin.de/index.php?show=daten_cer&amp;lan=de"/>
+    <hyperlink ref="E53" r:id="rId72" display="https://dms.klima.tu-berlin.de/search"/>
+    <hyperlink ref="J53" r:id="rId73" display="https://dms.klima.tu-berlin.de/"/>
+    <hyperlink ref="E54" r:id="rId74" display="https://data.icos-cp.eu/portal/"/>
+    <hyperlink ref="J54" r:id="rId75" display="https://www.icos-cp.eu/about/icos-in-nutshell"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>143</v>
+        <v>390</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>37</v>
+        <v>206</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>206</v>
+        <v>395</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>52</v>
@@ -3001,33 +5093,30 @@
         <v>32</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>52</v>
@@ -3036,68 +5125,65 @@
         <v>32</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>213</v>
+        <v>398</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>217</v>
+        <v>400</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>218</v>
+        <v>401</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>219</v>
+        <v>402</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>221</v>
+        <v>403</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>120</v>
@@ -3106,33 +5192,33 @@
         <v>32</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>224</v>
+        <v>405</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>32</v>
@@ -3141,33 +5227,33 @@
         <v>32</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>32</v>
@@ -3176,33 +5262,33 @@
         <v>32</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>32</v>
@@ -3211,33 +5297,33 @@
         <v>32</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>32</v>
@@ -3249,24 +5335,24 @@
         <v>37</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>32</v>
@@ -3281,65 +5367,65 @@
         <v>32</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>249</v>
+        <v>418</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>250</v>
+        <v>419</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>37</v>
@@ -3351,71 +5437,71 @@
         <v>32</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>260</v>
+        <v>424</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>261</v>
+        <v>425</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>202</v>
@@ -3424,166 +5510,138 @@
         <v>37</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>267</v>
+        <v>427</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>276</v>
+        <v>430</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>278</v>
+        <v>431</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>276</v>
+        <v>430</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>290</v>
+        <v>433</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>292</v>
+        <v>429</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="S55" s="2" t="s">
         <v>299</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3642,2071 +5700,29 @@
     <hyperlink ref="E36" r:id="rId52" display="https://www.arcat.com/bim/bim_objects.shtml"/>
     <hyperlink ref="I36" r:id="rId53" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
     <hyperlink ref="E37" r:id="rId54" display="https://www.dwd.de/DE/leistungen/testreferenzjahre/testreferenzjahre.html"/>
-    <hyperlink ref="I37" r:id="rId55" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E38" r:id="rId56" display="https://solar.htw-berlin.de/elektrische-lastprofile-fuer-wohngebaeude/"/>
-    <hyperlink ref="E39" r:id="rId57" display="https://www.citygmlwiki.org/index.php?title=KIT_Sample_files_Energy_ADE"/>
-    <hyperlink ref="E40" r:id="rId58" display="https://wiki.hotmaps.eu/de/Hotmaps-data-set-method-of-data-collection"/>
-    <hyperlink ref="E41" r:id="rId59" display="https://ec.europa.eu/eurostat/data/database"/>
-    <hyperlink ref="E42" r:id="rId60" display="https://data.open-power-system-data.org/when2heat/2022-02-22"/>
-    <hyperlink ref="E43" r:id="rId61" display="https://zenodo.org/record/5642902"/>
-    <hyperlink ref="E44" r:id="rId62" display="https://zenodo.org/record/6728382"/>
-    <hyperlink ref="E45" r:id="rId63" display="https://www.netzentwicklungsplan.de/en/background/transmission-system-operators"/>
-    <hyperlink ref="E46" r:id="rId64" location="!/dataset/reanalysis-era5-single-levels?tab=overview" display="https://cds.climate.copernicus.eu/cdsapp#!/dataset/reanalysis-era5-single-levels?tab=overview"/>
-    <hyperlink ref="E47" r:id="rId65" display="https://zenodo.org/record/4817980"/>
-    <hyperlink ref="E48" r:id="rId66" display="https://zenodo.org/record/6414018"/>
-    <hyperlink ref="E49" r:id="rId67" display="https://www.ggv-energie.de/cms/netz/allgemeine-daten/netzbilanzierung-download-aller-profile.php"/>
-    <hyperlink ref="E50" r:id="rId68" display="https://www.building360.ch/bauteilkataloge"/>
-    <hyperlink ref="I50" r:id="rId69" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
-    <hyperlink ref="E51" r:id="rId70" display="https://opendata.dwd.de/"/>
-    <hyperlink ref="J51" r:id="rId71" display="https://www.dwd.de/DE/leistungen/opendata/hilfe.html"/>
-    <hyperlink ref="E52" r:id="rId72" display="https://data.klima.tu-berlin.de/CER/"/>
+    <hyperlink ref="E38" r:id="rId55" display="https://solar.htw-berlin.de/elektrische-lastprofile-fuer-wohngebaeude/"/>
+    <hyperlink ref="E39" r:id="rId56" display="https://www.citygmlwiki.org/index.php?title=KIT_Sample_files_Energy_ADE"/>
+    <hyperlink ref="E40" r:id="rId57" display="https://wiki.hotmaps.eu/de/Hotmaps-data-set-method-of-data-collection"/>
+    <hyperlink ref="E41" r:id="rId58" display="https://ec.europa.eu/eurostat/data/database"/>
+    <hyperlink ref="E42" r:id="rId59" display="https://data.open-power-system-data.org/when2heat/2022-02-22"/>
+    <hyperlink ref="E43" r:id="rId60" display="https://zenodo.org/record/5642902"/>
+    <hyperlink ref="E44" r:id="rId61" display="https://zenodo.org/record/6728382"/>
+    <hyperlink ref="E45" r:id="rId62" display="https://www.netzentwicklungsplan.de/en/background/transmission-system-operators"/>
+    <hyperlink ref="E46" r:id="rId63" location="!/dataset/reanalysis-era5-single-levels?tab=overview" display="https://cds.climate.copernicus.eu/cdsapp#!/dataset/reanalysis-era5-single-levels?tab=overview"/>
+    <hyperlink ref="E47" r:id="rId64" display="https://zenodo.org/record/4817980"/>
+    <hyperlink ref="E48" r:id="rId65" display="https://zenodo.org/record/6414018"/>
+    <hyperlink ref="E49" r:id="rId66" display="https://www.ggv-energie.de/cms/netz/allgemeine-daten/netzbilanzierung-download-aller-profile.php"/>
+    <hyperlink ref="E50" r:id="rId67" display="https://www.building360.ch/bauteilkataloge"/>
+    <hyperlink ref="I50" r:id="rId68" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
+    <hyperlink ref="E51" r:id="rId69" display="https://opendata.dwd.de/"/>
+    <hyperlink ref="J51" r:id="rId70" display="https://www.dwd.de/DE/leistungen/opendata/hilfe.html"/>
+    <hyperlink ref="E52" r:id="rId71" display="https://data.klima.tu-berlin.de/CER/"/>
+    <hyperlink ref="I52" r:id="rId72" display="The Central Europe Refined analysis version 1 (CER v1) is an atmospheric data set generated within the frameworks of the DFG-funded research unit &quot;Urban Climate and Heat Stress in mid-latitude cities in view of climate change (UcaHS)&quot; (http://ucahs.org) and the DFG-funded research project &quot;Heat waves in Berlin, Germany - Urban climate modifications&quot; (https://www.klima.tu-berlin.de/index.php?show=stadtklima_de_hitzewellen_in_berlin&amp;lan=de). The CER covers the period March 2001 - May 2019 and provides gridded two- and three-dimensional fields of a multitude of atmospheric variables for three domains. The setup of the CER is based on a sensitivity study concerning planetary boundary layer schemes and urban canopy models by Jänicke et al. (2017)  (https://rmets.onlinelibrary.wiley.com/doi/10.1002/joc.4835)"/>
     <hyperlink ref="J52" r:id="rId73" display="https://www.klima.tu-berlin.de/index.php?show=daten_cer&amp;lan=de"/>
     <hyperlink ref="E53" r:id="rId74" display="https://dms.klima.tu-berlin.de/search"/>
     <hyperlink ref="J53" r:id="rId75" display="https://dms.klima.tu-berlin.de/"/>
-    <hyperlink ref="J54" r:id="rId76" display="https://www.bbsr.bund.de/BBSR/DE/forschung/programme/zb/Auftragsforschung/5EnergieKlimaBauen/2013/testreferenzjahre/01-start.html;"/>
-    <hyperlink ref="E55" r:id="rId77" display="https://data.icos-cp.eu/portal/"/>
-    <hyperlink ref="J55" r:id="rId78" display="https://www.icos-cp.eu/about/icos-in-nutshell"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.probas.umweltbundesamt.de/php/index.php"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://zenodo.org/record/6771218"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://zenodo.org/record/6414018"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://www.kaggle.com/datasets/teeyee314/ucf-building-meter-reading"/>
-    <hyperlink ref="E6" r:id="rId5" display="http://www.adv-online.de/AdV-Produkte/Liegenschaftskataster/Download/"/>
-    <hyperlink ref="I6" r:id="rId6" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://wiki.openstreetmap.org/wiki/Buildings"/>
-    <hyperlink ref="I7" r:id="rId8" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E8" r:id="rId9" display="http://www.geoportal-th.de/de-de/Downloadbereiche/Download-Offene-Geodaten-Th%C3%BCringen/Download-3D-Geb%C3%A4ude"/>
-    <hyperlink ref="I8" r:id="rId10" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E9" r:id="rId11" display="http://www.adv-online.de/AdV-Produkte/Liegenschaftskataster/Amtliche-Hausumringe/"/>
-    <hyperlink ref="I9" r:id="rId12" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E10" r:id="rId13" display="http://plato.asu.edu/ftp/lpbar.html"/>
-    <hyperlink ref="E11" r:id="rId14" display="https://fbinter.stadt-berlin.de/fb/gisbroker.do;jsessionid=1BD1F75A060787BFEBE6FDF37029694D?cmd=map_start"/>
-    <hyperlink ref="I11" r:id="rId15" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E12" r:id="rId16" display="https://www.oekobaudat.de/"/>
-    <hyperlink ref="E13" r:id="rId17" display="http://www.iwu.de/fileadmin/user_upload/dateien/energie/typo_NWG/IWU_2015_Typologie-gest%C3%BCtzte_Kennwerte_NWG.pdf"/>
-    <hyperlink ref="I13" r:id="rId18" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E14" r:id="rId19" display="http://www.irbnet.de/daten/baufo/20118035380/Projektkurzbeschreibung.pdf"/>
-    <hyperlink ref="I14" r:id="rId20" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E15" r:id="rId21" display="http://episcope.eu/building-typology/country/de/"/>
-    <hyperlink ref="I15" r:id="rId22" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="I16" r:id="rId23" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E17" r:id="rId24" display="https://gdz.bkg.bund.de/index.php/default/open-data/digitales-gelandemodell-gitterweite-200-m-dgm200.html"/>
-    <hyperlink ref="I17" r:id="rId25" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E18" r:id="rId26" display="https://www.gie.eu/transparency/"/>
-    <hyperlink ref="E19" r:id="rId27" location="/" display="https://ashraeobdatabase.com/#/"/>
-    <hyperlink ref="E20" r:id="rId28" display="https://gdz.bkg.bund.de/index.php/default/digitale-geodaten/digitale-gelandemodelle.html?___store=default"/>
-    <hyperlink ref="I20" r:id="rId29" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E21" r:id="rId30" display="https://www.opengeodata.nrw.de/produkte/geobasis/dtk/"/>
-    <hyperlink ref="I21" r:id="rId31" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E22" r:id="rId32" display="https://www.opengeodata.nrw.de/produkte/geobasis/3d-gm/"/>
-    <hyperlink ref="I22" r:id="rId33" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E23" r:id="rId34" display="https://data.openei.org/submissions/2977"/>
-    <hyperlink ref="E24" r:id="rId35" display="https://climate.onebuilding.org/"/>
-    <hyperlink ref="E25" r:id="rId36" display="https://www.pecanstreet.org/dataport/"/>
-    <hyperlink ref="E26" r:id="rId37" display="https://wohngebaeudedaten2016.iwu.de/"/>
-    <hyperlink ref="I26" r:id="rId38" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E27" r:id="rId39" display="http://data.opendataportal.at/dataset/dtm-germany"/>
-    <hyperlink ref="I27" r:id="rId40" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E28" r:id="rId41" display="https://www.db-thueringen.de/receive/dbt_mods_00053108"/>
-    <hyperlink ref="E29" r:id="rId42" display="https://www.destatis.de/EN/FactsFigures/EconomicSectors/Construction/Construction.html"/>
-    <hyperlink ref="I29" r:id="rId43" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E30" r:id="rId44" display="https://fbinter.stadt-berlin.de/fb/gisbroker.do;jsessionid=1BD1F75A060787BFEBE6FDF37029694D?cmd=map_start"/>
-    <hyperlink ref="I30" r:id="rId45" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E31" r:id="rId46" location="52.3026,4.9016,11" display="https://code.waag.org/buildings/#52.3026,4.9016,11"/>
-    <hyperlink ref="E32" r:id="rId47" display="https://www.dwd.de/DE/leistungen/cdc_portal/cdc_portal.html?nn=17626"/>
-    <hyperlink ref="I32" r:id="rId48" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E33" r:id="rId49" display="https://openenergy-platform.org/dataedit/schemas"/>
-    <hyperlink ref="E34" r:id="rId50" location="15.66/13.30813/52.52967/0/" display="https://osmlanduse.org/#15.66/13.30813/52.52967/0/"/>
-    <hyperlink ref="E35" r:id="rId51" display="https://www.bdew.de/energie/standardlastprofile-strom/"/>
-    <hyperlink ref="E36" r:id="rId52" display="https://www.arcat.com/bim/bim_objects.shtml"/>
-    <hyperlink ref="I36" r:id="rId53" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
-    <hyperlink ref="E37" r:id="rId54" display="https://www.dwd.de/DE/leistungen/testreferenzjahre/testreferenzjahre.html"/>
-    <hyperlink ref="I37" r:id="rId55" display="https://ibpsa.github.io/project1-wp-2-1-cim-gis/germany.html"/>
-    <hyperlink ref="E38" r:id="rId56" display="https://solar.htw-berlin.de/elektrische-lastprofile-fuer-wohngebaeude/"/>
-    <hyperlink ref="E39" r:id="rId57" display="https://www.citygmlwiki.org/index.php?title=KIT_Sample_files_Energy_ADE"/>
-    <hyperlink ref="E40" r:id="rId58" display="https://wiki.hotmaps.eu/de/Hotmaps-data-set-method-of-data-collection"/>
-    <hyperlink ref="E41" r:id="rId59" display="https://ec.europa.eu/eurostat/data/database"/>
-    <hyperlink ref="E42" r:id="rId60" display="https://data.open-power-system-data.org/when2heat/2022-02-22"/>
-    <hyperlink ref="E43" r:id="rId61" display="https://zenodo.org/record/5642902"/>
-    <hyperlink ref="E44" r:id="rId62" display="https://zenodo.org/record/6728382"/>
-    <hyperlink ref="E45" r:id="rId63" display="https://www.netzentwicklungsplan.de/en/background/transmission-system-operators"/>
-    <hyperlink ref="E46" r:id="rId64" location="!/dataset/reanalysis-era5-single-levels?tab=overview" display="https://cds.climate.copernicus.eu/cdsapp#!/dataset/reanalysis-era5-single-levels?tab=overview"/>
-    <hyperlink ref="E47" r:id="rId65" display="https://zenodo.org/record/4817980"/>
-    <hyperlink ref="E48" r:id="rId66" display="https://zenodo.org/record/6414018"/>
-    <hyperlink ref="E49" r:id="rId67" display="https://www.ggv-energie.de/cms/netz/allgemeine-daten/netzbilanzierung-download-aller-profile.php"/>
-    <hyperlink ref="E50" r:id="rId68" display="https://www.building360.ch/bauteilkataloge"/>
-    <hyperlink ref="I50" r:id="rId69" display="https://blogs.autodesk.com/bimblog/revit-Inhalte-online-bibliotheken-mit-10-000en-familien-als-download-beitrag-wird-regelmasig-aktualisiert/"/>
-    <hyperlink ref="E51" r:id="rId70" display="https://opendata.dwd.de/"/>
-    <hyperlink ref="J51" r:id="rId71" display="https://www.dwd.de/DE/leistungen/opendata/hilfe.html"/>
-    <hyperlink ref="E52" r:id="rId72" display="https://data.klima.tu-berlin.de/CER/"/>
-    <hyperlink ref="I52" r:id="rId73" display="https://rmets.onlinelibrary.wiley.com/doi/10.1002/joc.4835"/>
-    <hyperlink ref="J52" r:id="rId74" display="https://www.klima.tu-berlin.de/index.php?show=daten_cer&amp;lan=de"/>
-    <hyperlink ref="E53" r:id="rId75" display="https://dms.klima.tu-berlin.de/search"/>
-    <hyperlink ref="J53" r:id="rId76" display="https://dms.klima.tu-berlin.de/"/>
-    <hyperlink ref="J54" r:id="rId77" display="https://www.bbsr.bund.de/BBSR/DE/forschung/programme/zb/Auftragsforschung/5EnergieKlimaBauen/2013/testreferenzjahre/01-start.html;"/>
-    <hyperlink ref="E55" r:id="rId78" display="https://data.icos-cp.eu/portal/"/>
-    <hyperlink ref="J55" r:id="rId79" display="https://www.icos-cp.eu/about/icos-in-nutshell"/>
+    <hyperlink ref="E54" r:id="rId76" display="https://data.icos-cp.eu/portal/"/>
+    <hyperlink ref="J54" r:id="rId77" display="https://www.icos-cp.eu/about/icos-in-nutshell"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
